--- a/HW6/FIFO VS LRU.xlsx
+++ b/HW6/FIFO VS LRU.xlsx
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +51,23 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +94,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -493,16 +516,77 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="365095584"/>
-        <c:axId val="365095976"/>
+        <c:axId val="370758176"/>
+        <c:axId val="390337024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="365095584"/>
+        <c:axId val="370758176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> of pages</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -540,7 +624,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365095976"/>
+        <c:crossAx val="390337024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="365095976"/>
+        <c:axId val="390337024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,6 +652,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t># of faults</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -599,7 +740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365095584"/>
+        <c:crossAx val="370758176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -677,7 +818,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1228,16 +1368,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219073</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>16850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27843</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83526</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1257,155 +1397,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.87917</cdr:x>
-      <cdr:y>0.77137</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.88051</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="文本框 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7519950" y="3225470"/>
-          <a:ext cx="1033501" cy="456353"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>NUM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> OF Frames</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0.00759</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.12083</cdr:x>
-      <cdr:y>0.11673</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="文本框 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="31750"/>
-          <a:ext cx="1033501" cy="456353"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>NUM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
-            <a:t> OF Page Faults</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1673,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1683,158 +1674,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>90</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>86</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>81</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>74</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>65</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>54</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>47</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>40</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>36</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>28</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>26</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>15</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>90</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>86</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>78</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>74</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>67</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>62</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>51</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>38</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>33</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>28</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>23</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>20</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>14</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <v>14</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>14</v>
       </c>
     </row>
